--- a/Cronograma_Telas.xlsx
+++ b/Cronograma_Telas.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\DACSistemaRH\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Clovis</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -180,12 +183,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,9 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,9 +238,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0">
-  <autoFilter ref="A1:G19"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="ID">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
@@ -233,6 +250,7 @@
     <tableColumn id="5" name="Comentários"/>
     <tableColumn id="6" name="Responsável"/>
     <tableColumn id="7" name="Data"/>
+    <tableColumn id="8" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +537,7 @@
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +559,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,8 +585,9 @@
       <c r="G2" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -588,8 +610,9 @@
       <c r="G3" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A5" si="0">A3+1</f>
         <v>3</v>
@@ -612,8 +635,9 @@
       <c r="G4" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -636,8 +660,9 @@
       <c r="G5" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A13" si="1">A5+1</f>
         <v>5</v>
@@ -660,8 +685,9 @@
       <c r="G6" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -684,8 +710,9 @@
       <c r="G7" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -708,8 +735,9 @@
       <c r="G8" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -732,8 +760,9 @@
       <c r="G9" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -756,8 +785,9 @@
       <c r="G10" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -780,8 +810,9 @@
       <c r="G11" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -804,8 +835,9 @@
       <c r="G12" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -828,8 +860,9 @@
       <c r="G13" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>A13+1</f>
         <v>13</v>
@@ -852,8 +885,9 @@
       <c r="G14" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -875,8 +909,9 @@
       <c r="G15" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ref="A16" si="2">A15+1</f>
         <v>15</v>
@@ -899,8 +934,9 @@
       <c r="G16" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ref="A17:A18" si="3">A16+1</f>
         <v>16</v>
@@ -923,8 +959,9 @@
       <c r="G17" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -947,8 +984,9 @@
       <c r="G18" s="1">
         <v>42827</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>A18+1</f>
         <v>18</v>
@@ -971,6 +1009,7 @@
       <c r="G19" s="1">
         <v>42827</v>
       </c>
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cronograma_Telas.xlsx
+++ b/Cronograma_Telas.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\DACSistemaRH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mths\Desktop\Projeto DAC\DACSistemaRH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,8 +512,8 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="122.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
